--- a/RAW/Demo_Raw.xlsx
+++ b/RAW/Demo_Raw.xlsx
@@ -261,7 +261,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -309,8 +309,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
     <col min="8" max="8" width="9.140625" style="5"/>
     <col min="10" max="10" width="9.140625" style="5"/>
     <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="14" max="14" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="9" customWidth="1"/>
     <col min="15" max="15" width="12.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
